--- a/.excel/Monthly_transactions_2024-03-08.xlsx
+++ b/.excel/Monthly_transactions_2024-03-08.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\booking-rooms\.excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C86801-D421-4C4B-83D6-1A199D55231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="3060" windowWidth="21600" windowHeight="11385" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly Transactions 2024-03-08" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly Transactions 2024-03-08" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Transaction_id</t>
   </si>
@@ -50,16 +46,60 @@
   </si>
   <si>
     <t>Jumlah_Transaksi</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>0001-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34567890-3456-3456-3456-345678901234</t>
+  </si>
+  <si>
+    <t>33333333-3333-3333-3333-333333333333</t>
+  </si>
+  <si>
+    <t>99999999-9999-9999-9999-999999999999</t>
+  </si>
+  <si>
+    <t>2024-03-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>Training session</t>
+  </si>
+  <si>
+    <t>2024-03-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-03-07T11:55:20.667375Z</t>
+  </si>
+  <si>
+    <t>2024-03-06T09:51:37.808009Z</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45678901-4567-4567-4567-456789012345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,38 +107,25 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,26 +450,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.59765625" style="1" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,10 +506,105 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
